--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -637,7 +637,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -645,7 +645,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -653,7 +653,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -661,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -998,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1030,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -1046,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -1054,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -1062,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -1070,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1078,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -1094,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -1102,7 +1102,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -1118,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -1126,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -1134,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1150,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1198,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -1471,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -1487,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1495,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1511,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1527,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -1543,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -1551,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -1591,7 +1591,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -1599,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -1623,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1631,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -1639,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -1647,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1655,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -1663,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -1679,7 +1679,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -1687,7 +1687,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -1944,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1952,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1960,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -1968,7 +1968,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -1976,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -1984,7 +1984,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -2000,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -2008,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -2016,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -2024,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -2032,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -2040,7 +2040,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -2048,7 +2048,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -2056,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -2064,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -2096,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -2104,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -2112,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -2120,7 +2120,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -2128,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -2136,7 +2136,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -2144,7 +2144,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -2152,7 +2152,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -2160,7 +2160,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -2168,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -2433,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -2441,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -2449,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -2457,7 +2457,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -2465,7 +2465,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -2481,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -2489,7 +2489,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -2497,7 +2497,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -2513,7 +2513,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -2529,7 +2529,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -2537,7 +2537,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -2561,7 +2561,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -2569,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -2585,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -2593,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -2601,7 +2601,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -2609,7 +2609,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -2617,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -2625,7 +2625,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -2633,7 +2633,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -2641,7 +2641,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -2649,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -2898,7 +2898,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2906,7 +2906,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -2922,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -2930,7 +2930,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
@@ -2938,7 +2938,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -2946,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -2962,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2970,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -2978,7 +2978,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -2986,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -3002,7 +3002,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -3010,7 +3010,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -3026,7 +3026,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -3034,7 +3034,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -3042,7 +3042,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -3050,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -3058,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -3066,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -3074,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -3082,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -3090,7 +3090,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -3098,7 +3098,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -3106,7 +3106,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -3114,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -3122,7 +3122,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -3379,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -3387,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -3395,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -3403,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -3411,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -3419,7 +3419,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -3427,7 +3427,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -3435,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -3443,7 +3443,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -3459,7 +3459,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -3467,7 +3467,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -3475,7 +3475,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -3483,7 +3483,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -3499,7 +3499,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -3507,7 +3507,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -3515,7 +3515,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -3531,7 +3531,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -3539,7 +3539,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -3547,7 +3547,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -3555,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -3563,7 +3563,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -3571,7 +3571,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -3579,7 +3579,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -3587,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -3595,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -3603,7 +3603,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -3860,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -3868,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3876,7 +3876,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -3884,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3900,7 +3900,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -3908,7 +3908,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -3916,7 +3916,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -3924,7 +3924,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -3932,7 +3932,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -3940,7 +3940,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -3948,7 +3948,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -3956,7 +3956,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -3964,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -3972,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -3980,7 +3980,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -3988,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -3996,7 +3996,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -4004,7 +4004,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -4012,7 +4012,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -4020,7 +4020,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -4028,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -4036,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -4044,7 +4044,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -4052,7 +4052,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -4060,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -4068,7 +4068,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -4076,7 +4076,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -4333,7 +4333,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -4341,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -4349,7 +4349,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -4357,7 +4357,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -4365,7 +4365,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -4373,7 +4373,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -4381,7 +4381,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -4389,7 +4389,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -4397,7 +4397,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -4405,7 +4405,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -4413,7 +4413,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -4421,7 +4421,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -4429,7 +4429,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -4437,7 +4437,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -4453,7 +4453,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -4461,7 +4461,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -4469,7 +4469,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -4477,7 +4477,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -4485,7 +4485,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -4493,7 +4493,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -4501,7 +4501,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -4509,7 +4509,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -4517,7 +4517,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -4525,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -4533,7 +4533,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -4541,7 +4541,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -4549,7 +4549,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -4557,7 +4557,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -4694,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -4702,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -4710,7 +4710,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -4718,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -4726,7 +4726,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -4734,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -4742,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -4750,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -4758,7 +4758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -4766,7 +4766,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -4774,7 +4774,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -4782,7 +4782,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -4790,7 +4790,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -4798,7 +4798,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -4806,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -4814,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -4830,7 +4830,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -4838,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -4846,7 +4846,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -4854,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -4862,7 +4862,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -4870,7 +4870,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -4878,7 +4878,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -4886,7 +4886,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -4894,7 +4894,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -4902,7 +4902,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -4910,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -4918,7 +4918,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -4926,7 +4926,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -4934,7 +4934,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -4942,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -4950,7 +4950,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -4958,7 +4958,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -4966,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -4974,7 +4974,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -4982,7 +4982,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -4990,7 +4990,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -4998,7 +4998,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -5006,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -5014,7 +5014,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -5022,7 +5022,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -5030,7 +5030,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5143,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5151,7 +5151,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -5159,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -5167,7 +5167,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -5175,7 +5175,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -5183,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -5191,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -5199,7 +5199,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -5207,7 +5207,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -5215,7 +5215,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -5223,7 +5223,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -5231,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -5239,7 +5239,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -5247,7 +5247,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -5255,7 +5255,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -5263,7 +5263,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -5271,7 +5271,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -5279,7 +5279,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -5287,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -5295,7 +5295,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -5303,7 +5303,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -5319,7 +5319,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -5327,7 +5327,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -5335,7 +5335,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -5343,7 +5343,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -5351,7 +5351,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -5359,7 +5359,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -5367,7 +5367,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -5375,7 +5375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -5383,7 +5383,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5399,7 +5399,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -5407,7 +5407,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -5415,7 +5415,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -5423,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -5431,7 +5431,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -5439,7 +5439,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -5447,7 +5447,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -5455,7 +5455,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -5463,7 +5463,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -5471,7 +5471,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -5479,7 +5479,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -5487,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -5495,7 +5495,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -5503,7 +5503,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -5648,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -5656,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -5664,7 +5664,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -5672,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -5680,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -5688,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -5696,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -5704,7 +5704,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -5712,7 +5712,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -5728,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -5736,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -5752,7 +5752,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -5760,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5768,7 +5768,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -5776,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -5784,7 +5784,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -5792,7 +5792,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -5800,7 +5800,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -5808,7 +5808,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -5816,7 +5816,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -5840,7 +5840,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -5848,7 +5848,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -5856,7 +5856,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -5864,7 +5864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -5872,7 +5872,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5880,7 +5880,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -6097,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6105,7 +6105,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -6113,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -6121,7 +6121,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -6137,7 +6137,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -6145,7 +6145,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -6153,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -6161,7 +6161,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -6169,7 +6169,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -6177,7 +6177,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -6185,7 +6185,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -6193,7 +6193,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -6201,7 +6201,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -6209,7 +6209,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -6217,7 +6217,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -6225,7 +6225,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -6233,7 +6233,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -6241,7 +6241,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -6249,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -6257,7 +6257,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -6265,7 +6265,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -6281,7 +6281,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -6289,7 +6289,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -6297,7 +6297,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -6305,7 +6305,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -6313,7 +6313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
@@ -6321,7 +6321,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -6329,7 +6329,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -6337,7 +6337,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -6345,7 +6345,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -6353,7 +6353,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -6361,7 +6361,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -6369,7 +6369,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -6377,7 +6377,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -6385,7 +6385,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -6393,7 +6393,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -6401,7 +6401,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -6409,7 +6409,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -6417,7 +6417,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
@@ -6425,7 +6425,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -6433,7 +6433,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -6441,7 +6441,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -6457,7 +6457,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
@@ -6465,7 +6465,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -6562,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -6570,7 +6570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6578,7 +6578,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -6586,7 +6586,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -6594,7 +6594,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -6610,7 +6610,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -6618,7 +6618,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -6626,7 +6626,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -6634,7 +6634,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -6642,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -6650,7 +6650,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -6658,7 +6658,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -6666,7 +6666,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -6674,7 +6674,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -6682,7 +6682,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -6690,7 +6690,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -6698,7 +6698,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -6706,7 +6706,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -6714,7 +6714,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -6722,7 +6722,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -6730,7 +6730,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -6738,7 +6738,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -6746,7 +6746,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -6762,7 +6762,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -6770,7 +6770,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -6778,7 +6778,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -6786,7 +6786,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -6794,7 +6794,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -6802,7 +6802,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -6810,7 +6810,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -6834,7 +6834,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -6842,7 +6842,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -6850,7 +6850,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -6858,7 +6858,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -6866,7 +6866,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -6874,7 +6874,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -6882,7 +6882,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -6890,7 +6890,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -6914,7 +6914,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -6922,7 +6922,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -6930,7 +6930,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
@@ -6938,7 +6938,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6946,7 +6946,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -6954,7 +6954,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -7027,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -7035,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -7043,7 +7043,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -7051,7 +7051,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -7059,7 +7059,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -7067,7 +7067,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -7075,7 +7075,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -7083,7 +7083,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -7091,7 +7091,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -7099,7 +7099,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -7107,7 +7107,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -7115,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -7123,7 +7123,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -7131,7 +7131,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -7139,7 +7139,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -7147,7 +7147,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -7155,7 +7155,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -7163,7 +7163,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -7171,7 +7171,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -7179,7 +7179,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -7187,7 +7187,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -7195,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -7203,7 +7203,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -7211,7 +7211,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -7219,7 +7219,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -7227,7 +7227,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -7235,7 +7235,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -7243,7 +7243,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -7251,7 +7251,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -7259,7 +7259,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -7267,7 +7267,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -7275,7 +7275,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -7283,7 +7283,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -7291,7 +7291,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -7307,7 +7307,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -7315,7 +7315,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -7323,7 +7323,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -7331,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -7339,7 +7339,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -7347,7 +7347,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -7371,7 +7371,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -7379,7 +7379,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -7387,7 +7387,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -7395,7 +7395,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -7403,7 +7403,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -7411,7 +7411,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -7419,7 +7419,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -7427,7 +7427,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -7435,7 +7435,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -7443,7 +7443,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -7508,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -7516,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -7524,7 +7524,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -7532,7 +7532,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -7540,7 +7540,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -7548,7 +7548,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -7556,7 +7556,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -7564,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -7572,7 +7572,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -7580,7 +7580,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -7588,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -7596,7 +7596,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -7604,7 +7604,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -7612,7 +7612,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -7620,7 +7620,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -7628,7 +7628,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -7636,7 +7636,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -7644,7 +7644,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -7652,7 +7652,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -7660,7 +7660,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -7668,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -7676,7 +7676,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -7684,7 +7684,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -7692,7 +7692,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -7700,7 +7700,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -7708,7 +7708,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -7716,7 +7716,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -7724,7 +7724,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -7740,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -7748,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -7756,7 +7756,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -7764,7 +7764,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -7772,7 +7772,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -7820,7 +7820,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -7828,7 +7828,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -7836,7 +7836,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -7844,7 +7844,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -7852,7 +7852,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -7860,7 +7860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -7868,7 +7868,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -7876,7 +7876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -7884,7 +7884,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
@@ -7892,7 +7892,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -7900,7 +7900,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -7908,7 +7908,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -7916,7 +7916,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -7924,7 +7924,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -7932,7 +7932,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -7973,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -7981,7 +7981,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -7989,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -7997,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -8005,7 +8005,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -8013,7 +8013,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8021,7 +8021,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -8029,7 +8029,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -8037,7 +8037,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -8045,7 +8045,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -8053,7 +8053,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -8061,7 +8061,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -8069,7 +8069,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -8077,7 +8077,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -8085,7 +8085,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -8093,7 +8093,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -8101,7 +8101,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -8109,7 +8109,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -8117,7 +8117,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -8125,7 +8125,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -8133,7 +8133,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -8141,7 +8141,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -8149,7 +8149,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -8157,7 +8157,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -8165,7 +8165,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -8173,7 +8173,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -8181,7 +8181,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -8189,7 +8189,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -8197,7 +8197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -8205,7 +8205,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -8213,7 +8213,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
@@ -8221,7 +8221,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -8229,7 +8229,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -8237,7 +8237,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -8245,7 +8245,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -8253,7 +8253,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -8261,7 +8261,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -8269,7 +8269,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -8277,7 +8277,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -8285,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -8293,7 +8293,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -8301,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -8309,7 +8309,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -8317,7 +8317,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
@@ -8325,7 +8325,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -8333,7 +8333,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -8341,7 +8341,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -8349,7 +8349,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -8357,7 +8357,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
@@ -8365,7 +8365,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -8373,7 +8373,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -8381,7 +8381,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -8389,7 +8389,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -8397,7 +8397,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -8405,7 +8405,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8462,7 +8462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -8470,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -8478,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -8486,7 +8486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8494,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -8502,7 +8502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -8510,7 +8510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -8518,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -8526,7 +8526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -8534,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -8542,7 +8542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -8550,7 +8550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -8558,7 +8558,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -8566,7 +8566,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -8574,7 +8574,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -8582,7 +8582,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -8590,7 +8590,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -8598,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -8606,7 +8606,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -8614,7 +8614,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -8622,7 +8622,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -8630,7 +8630,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -8638,7 +8638,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -8646,7 +8646,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -8670,7 +8670,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -8678,7 +8678,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -8686,7 +8686,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -8694,7 +8694,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -8702,7 +8702,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -8710,7 +8710,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -8726,7 +8726,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -8951,7 +8951,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -8959,7 +8959,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8967,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -8975,7 +8975,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -8983,7 +8983,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -8991,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -8999,7 +8999,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -9007,7 +9007,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -9015,7 +9015,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -9023,7 +9023,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -9031,7 +9031,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -9039,7 +9039,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -9047,7 +9047,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -9055,7 +9055,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -9063,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -9071,7 +9071,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -9079,7 +9079,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -9087,7 +9087,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -9095,7 +9095,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -9103,7 +9103,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -9111,7 +9111,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -9135,7 +9135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -9143,7 +9143,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -9151,7 +9151,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -9159,7 +9159,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -9167,7 +9167,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -9175,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -9183,7 +9183,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -9191,7 +9191,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -9199,7 +9199,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -9207,7 +9207,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -9215,7 +9215,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -9448,7 +9448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -9456,7 +9456,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -9464,7 +9464,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -9472,7 +9472,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -9480,7 +9480,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -9488,7 +9488,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -9496,7 +9496,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -9504,7 +9504,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -9512,7 +9512,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -9520,7 +9520,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -9528,7 +9528,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -9536,7 +9536,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -9544,7 +9544,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -9552,7 +9552,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -9560,7 +9560,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -9568,7 +9568,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -9576,7 +9576,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -9584,7 +9584,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -9592,7 +9592,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -9600,7 +9600,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -9608,7 +9608,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -9616,7 +9616,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
@@ -9624,7 +9624,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -9632,7 +9632,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -9640,7 +9640,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -9648,7 +9648,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -9656,7 +9656,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -9664,7 +9664,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -9672,7 +9672,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -9680,7 +9680,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -9688,7 +9688,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -9696,7 +9696,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -9937,7 +9937,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -9945,7 +9945,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -9953,7 +9953,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -9961,7 +9961,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -9969,7 +9969,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -9977,7 +9977,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -9985,7 +9985,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -9993,7 +9993,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -10001,7 +10001,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -10009,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -10049,7 +10049,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -10057,7 +10057,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -10065,7 +10065,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -10073,7 +10073,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -10081,7 +10081,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -10089,7 +10089,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -10097,7 +10097,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -10105,7 +10105,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -10113,7 +10113,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -10121,7 +10121,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -10129,7 +10129,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -10137,7 +10137,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -10145,7 +10145,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -10153,7 +10153,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -10161,7 +10161,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -10169,7 +10169,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -10177,7 +10177,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -10426,7 +10426,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -10434,7 +10434,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -10442,7 +10442,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -10450,7 +10450,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -10458,7 +10458,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -10466,7 +10466,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -10474,7 +10474,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -10482,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -10490,7 +10490,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -10498,7 +10498,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -10506,7 +10506,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -10514,7 +10514,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -10522,7 +10522,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -10530,7 +10530,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -10538,7 +10538,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -10546,7 +10546,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -10554,7 +10554,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -10562,7 +10562,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -10570,7 +10570,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -10578,7 +10578,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -10586,7 +10586,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -10594,7 +10594,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -10602,7 +10602,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -10610,7 +10610,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -10618,7 +10618,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -10626,7 +10626,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -10634,7 +10634,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -10642,7 +10642,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -10650,7 +10650,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -10658,7 +10658,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -10907,7 +10907,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -10915,7 +10915,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -10923,7 +10923,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -10931,7 +10931,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -10939,7 +10939,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -10947,7 +10947,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -10955,7 +10955,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -10963,7 +10963,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -10971,7 +10971,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -10979,7 +10979,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -10987,7 +10987,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -10995,7 +10995,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -11003,7 +11003,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -11011,7 +11011,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -11019,7 +11019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -11027,7 +11027,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -11035,7 +11035,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -11043,7 +11043,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -11051,7 +11051,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -11059,7 +11059,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -11067,7 +11067,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -11075,7 +11075,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -11083,7 +11083,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -11091,7 +11091,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -11099,7 +11099,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -11107,7 +11107,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -11115,7 +11115,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -11123,7 +11123,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -11131,7 +11131,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -11388,7 +11388,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -11396,7 +11396,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -11404,7 +11404,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -11412,7 +11412,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -11420,7 +11420,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -11428,7 +11428,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -11436,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -11444,7 +11444,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -11452,7 +11452,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -11460,7 +11460,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -11468,7 +11468,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -11476,7 +11476,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -11484,7 +11484,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -11492,7 +11492,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -11500,7 +11500,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -11508,7 +11508,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -11516,7 +11516,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -11524,7 +11524,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -11532,7 +11532,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -11540,7 +11540,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -11548,7 +11548,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -11556,7 +11556,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -11564,7 +11564,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -11572,7 +11572,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -11580,7 +11580,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -11588,7 +11588,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -11596,7 +11596,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -11604,7 +11604,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
@@ -11612,7 +11612,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -621,7 +621,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -637,7 +637,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -645,7 +645,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -653,7 +653,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -661,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -998,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -1030,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -1046,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -1054,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -1062,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1070,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -1078,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -1094,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -1102,7 +1102,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -1118,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -1126,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -1134,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1150,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -1158,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1182,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -1198,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -1471,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -1487,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -1495,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1511,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1527,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1543,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -1551,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -1591,7 +1591,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -1599,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1607,7 +1607,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -1615,7 +1615,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -1623,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -1647,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -1655,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
@@ -1663,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -1679,7 +1679,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -1687,7 +1687,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -1944,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -1952,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1960,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -1968,7 +1968,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1976,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1984,7 +1984,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -2000,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -2008,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -2016,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -2024,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
@@ -2032,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -2040,7 +2040,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -2048,7 +2048,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -2056,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -2064,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -2072,7 +2072,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -2080,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -2088,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -2096,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -2112,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -2120,7 +2120,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -2128,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -2136,7 +2136,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -2144,7 +2144,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -2152,7 +2152,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -2160,7 +2160,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -2168,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2433,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2441,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2449,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -2457,7 +2457,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -2465,7 +2465,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -2481,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -2489,7 +2489,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -2497,7 +2497,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -2513,7 +2513,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -2529,7 +2529,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -2537,7 +2537,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -2545,7 +2545,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -2569,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -2585,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -2593,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -2601,7 +2601,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -2609,7 +2609,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -2617,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -2625,7 +2625,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -2633,7 +2633,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -2641,7 +2641,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -2649,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -2898,7 +2898,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2906,7 +2906,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -2922,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -2930,7 +2930,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -2938,7 +2938,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -2946,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -2962,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2970,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -2978,7 +2978,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -2986,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -3002,7 +3002,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -3010,7 +3010,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -3018,7 +3018,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -3034,7 +3034,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -3042,7 +3042,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -3050,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -3058,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -3066,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -3074,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -3082,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -3090,7 +3090,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -3098,7 +3098,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -3106,7 +3106,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -3114,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -3122,7 +3122,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -3379,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3387,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -3395,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -3403,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3411,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -3419,7 +3419,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -3427,7 +3427,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -3435,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -3443,7 +3443,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -3459,7 +3459,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -3467,7 +3467,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -3475,7 +3475,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -3483,7 +3483,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -3499,7 +3499,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -3507,7 +3507,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -3515,7 +3515,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -3531,7 +3531,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -3539,7 +3539,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -3547,7 +3547,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -3555,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -3563,7 +3563,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -3571,7 +3571,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -3579,7 +3579,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -3587,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -3595,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -3603,7 +3603,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -3860,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -3868,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -3876,7 +3876,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -3884,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -3900,7 +3900,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -3908,7 +3908,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -3916,7 +3916,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -3924,7 +3924,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -3932,7 +3932,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -3940,7 +3940,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -3948,7 +3948,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -3964,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -3972,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -3980,7 +3980,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -3988,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -3996,7 +3996,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -4004,7 +4004,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -4012,7 +4012,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -4020,7 +4020,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -4028,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -4036,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -4044,7 +4044,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -4052,7 +4052,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -4060,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -4068,7 +4068,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -4076,7 +4076,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -4333,7 +4333,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -4341,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -4349,7 +4349,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -4357,7 +4357,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -4365,7 +4365,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -4373,7 +4373,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -4381,7 +4381,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -4389,7 +4389,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4397,7 +4397,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -4405,7 +4405,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -4413,7 +4413,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -4421,7 +4421,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4437,7 +4437,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -4445,7 +4445,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -4453,7 +4453,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -4461,7 +4461,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -4469,7 +4469,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -4477,7 +4477,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -4485,7 +4485,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -4493,7 +4493,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -4501,7 +4501,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -4509,7 +4509,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -4517,7 +4517,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -4525,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -4533,7 +4533,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -4541,7 +4541,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -4549,7 +4549,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -4557,7 +4557,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -4814,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -4822,7 +4822,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -4830,7 +4830,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -4838,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -4846,7 +4846,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -4854,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4862,7 +4862,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -4870,7 +4870,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -4878,7 +4878,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -4886,7 +4886,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -4902,7 +4902,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -4910,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -4918,7 +4918,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -4926,7 +4926,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -4934,7 +4934,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -4942,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -4950,7 +4950,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -4958,7 +4958,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -4966,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -4974,7 +4974,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -4982,7 +4982,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -4990,7 +4990,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -4998,7 +4998,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -5006,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -5014,7 +5014,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -5022,7 +5022,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -5030,7 +5030,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -5287,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -5295,7 +5295,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -5303,7 +5303,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -5311,7 +5311,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -5319,7 +5319,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -5327,7 +5327,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -5335,7 +5335,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -5343,7 +5343,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -5351,7 +5351,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -5359,7 +5359,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -5375,7 +5375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5383,7 +5383,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -5391,7 +5391,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -5399,7 +5399,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -5407,7 +5407,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -5415,7 +5415,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -5423,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -5431,7 +5431,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -5439,7 +5439,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -5447,7 +5447,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -5455,7 +5455,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -5463,7 +5463,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -5471,7 +5471,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -5479,7 +5479,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -5487,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -5495,7 +5495,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -5503,7 +5503,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
@@ -5511,7 +5511,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -5648,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -5656,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -5664,7 +5664,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -5672,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -5680,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -5688,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -5696,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -5704,7 +5704,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -5712,7 +5712,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -5728,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -5736,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -5752,7 +5752,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -5760,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -5768,7 +5768,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -5776,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -5784,7 +5784,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -5792,7 +5792,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -5800,7 +5800,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
@@ -5808,7 +5808,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -5816,7 +5816,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -5824,7 +5824,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -5840,7 +5840,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -5848,7 +5848,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -5856,7 +5856,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -5864,7 +5864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -5872,7 +5872,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -5880,7 +5880,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -6233,7 +6233,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -6241,7 +6241,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -6249,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -6257,7 +6257,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -6265,7 +6265,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -6281,7 +6281,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -6289,7 +6289,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -6297,7 +6297,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -6305,7 +6305,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -6321,7 +6321,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -6329,7 +6329,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -6337,7 +6337,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -6345,7 +6345,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -6353,7 +6353,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -6361,7 +6361,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -6369,7 +6369,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -6377,7 +6377,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -6385,7 +6385,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -6393,7 +6393,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -6401,7 +6401,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -6409,7 +6409,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -6417,7 +6417,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -6425,7 +6425,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -6433,7 +6433,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -6449,7 +6449,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -6457,7 +6457,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -6465,7 +6465,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -6473,7 +6473,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
@@ -6714,7 +6714,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -6722,7 +6722,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -6730,7 +6730,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -6738,7 +6738,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -6746,7 +6746,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -6754,7 +6754,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -6762,7 +6762,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -6770,7 +6770,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -6778,7 +6778,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -6794,7 +6794,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -6802,7 +6802,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -6810,7 +6810,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -6818,7 +6818,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -6834,7 +6834,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -6842,7 +6842,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6850,7 +6850,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -6858,7 +6858,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -6866,7 +6866,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -6874,7 +6874,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -6882,7 +6882,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -6890,7 +6890,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
@@ -6906,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -6914,7 +6914,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -6922,7 +6922,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -6930,7 +6930,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -6938,7 +6938,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
@@ -6946,7 +6946,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
@@ -6954,7 +6954,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -7187,7 +7187,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -7195,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -7203,7 +7203,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -7211,7 +7211,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -7219,7 +7219,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -7227,7 +7227,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
@@ -7235,7 +7235,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -7243,7 +7243,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -7251,7 +7251,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
@@ -7259,7 +7259,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -7275,7 +7275,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -7283,7 +7283,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -7291,7 +7291,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -7299,7 +7299,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -7307,7 +7307,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -7315,7 +7315,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -7323,7 +7323,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -7331,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -7339,7 +7339,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -7363,7 +7363,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -7371,7 +7371,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -7379,7 +7379,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
@@ -7387,7 +7387,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
@@ -7395,7 +7395,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -7403,7 +7403,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -7411,7 +7411,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -7419,7 +7419,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -7427,7 +7427,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -7435,7 +7435,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -7443,7 +7443,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -7660,7 +7660,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -7668,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -7676,7 +7676,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -7684,7 +7684,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -7692,7 +7692,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -7700,7 +7700,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -7708,7 +7708,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -7716,7 +7716,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -7724,7 +7724,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -7740,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -7748,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -7756,7 +7756,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -7812,7 +7812,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -7820,7 +7820,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -7828,7 +7828,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -7836,7 +7836,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -7844,7 +7844,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -7852,7 +7852,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -7860,7 +7860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
@@ -7868,7 +7868,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
@@ -7876,7 +7876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
@@ -7884,7 +7884,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
@@ -7892,7 +7892,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -7900,7 +7900,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -7908,7 +7908,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -7916,7 +7916,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -7924,7 +7924,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -7932,7 +7932,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -8133,7 +8133,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -8141,7 +8141,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -8149,7 +8149,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -8157,7 +8157,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -8165,7 +8165,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -8173,7 +8173,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -8181,7 +8181,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -8189,7 +8189,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -8197,7 +8197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -8205,7 +8205,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -8213,7 +8213,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -8221,7 +8221,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -8229,7 +8229,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -8237,7 +8237,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -8245,7 +8245,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -8253,7 +8253,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -8261,7 +8261,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -8269,7 +8269,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -8277,7 +8277,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -8285,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -8293,7 +8293,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -8301,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -8309,7 +8309,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -8317,7 +8317,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -8325,7 +8325,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -8333,7 +8333,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -8341,7 +8341,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
@@ -8349,7 +8349,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -8357,7 +8357,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
@@ -8365,7 +8365,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
@@ -8373,7 +8373,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
@@ -8381,7 +8381,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -8389,7 +8389,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -8397,7 +8397,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -8405,7 +8405,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -8446,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -8462,7 +8462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -8470,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -8478,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -8486,7 +8486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -8494,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -8502,7 +8502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -8510,7 +8510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -8518,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -8526,7 +8526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -8534,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -8542,7 +8542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -8550,7 +8550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -8558,7 +8558,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -8566,7 +8566,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -8574,7 +8574,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -8582,7 +8582,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -8590,7 +8590,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -8598,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -8606,7 +8606,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -8614,7 +8614,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -8622,7 +8622,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -8630,7 +8630,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -8638,7 +8638,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -8646,7 +8646,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -8654,7 +8654,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -8678,7 +8678,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -8686,7 +8686,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -8694,7 +8694,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -8702,7 +8702,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -8710,7 +8710,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -8726,7 +8726,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -8927,7 +8927,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -8951,7 +8951,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -8959,7 +8959,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -8967,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -8975,7 +8975,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -8983,7 +8983,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -8991,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -8999,7 +8999,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -9007,7 +9007,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -9015,7 +9015,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -9023,7 +9023,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -9031,7 +9031,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -9039,7 +9039,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -9047,7 +9047,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -9055,7 +9055,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -9063,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -9071,7 +9071,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -9079,7 +9079,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -9087,7 +9087,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -9095,7 +9095,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -9103,7 +9103,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -9135,7 +9135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -9143,7 +9143,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -9151,7 +9151,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -9159,7 +9159,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -9167,7 +9167,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -9175,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -9183,7 +9183,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -9191,7 +9191,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -9199,7 +9199,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -9207,7 +9207,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -9424,7 +9424,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -9432,7 +9432,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -9440,7 +9440,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -9448,7 +9448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -9456,7 +9456,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -9464,7 +9464,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -9472,7 +9472,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -9480,7 +9480,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -9488,7 +9488,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -9496,7 +9496,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -9504,7 +9504,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -9512,7 +9512,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -9520,7 +9520,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -9528,7 +9528,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -9536,7 +9536,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -9544,7 +9544,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -9552,7 +9552,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -9560,7 +9560,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -9584,7 +9584,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -9592,7 +9592,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -9600,7 +9600,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -9608,7 +9608,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -9616,7 +9616,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -9624,7 +9624,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -9632,7 +9632,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -9640,7 +9640,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -9648,7 +9648,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -9656,7 +9656,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -9664,7 +9664,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -9672,7 +9672,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -9680,7 +9680,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -9688,7 +9688,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -9921,7 +9921,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -9929,7 +9929,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -9937,7 +9937,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -9945,7 +9945,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -9953,7 +9953,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -9961,7 +9961,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -9969,7 +9969,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -9977,7 +9977,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -9985,7 +9985,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -9993,7 +9993,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -10001,7 +10001,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -10009,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -10017,7 +10017,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -10025,7 +10025,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -10033,7 +10033,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -10041,7 +10041,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -10049,7 +10049,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -10057,7 +10057,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -10065,7 +10065,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -10073,7 +10073,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -10081,7 +10081,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -10089,7 +10089,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -10097,7 +10097,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -10105,7 +10105,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -10113,7 +10113,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -10121,7 +10121,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -10129,7 +10129,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -10137,7 +10137,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -10145,7 +10145,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -10153,7 +10153,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -10161,7 +10161,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -10169,7 +10169,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -10410,7 +10410,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -10418,7 +10418,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -10426,7 +10426,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -10434,7 +10434,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -10442,7 +10442,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -10450,7 +10450,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -10474,7 +10474,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -10482,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -10490,7 +10490,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -10498,7 +10498,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -10506,7 +10506,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -10514,7 +10514,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -10522,7 +10522,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -10530,7 +10530,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -10538,7 +10538,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -10546,7 +10546,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -10554,7 +10554,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -10562,7 +10562,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -10570,7 +10570,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -10578,7 +10578,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -10586,7 +10586,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -10594,7 +10594,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -10602,7 +10602,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -10610,7 +10610,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -10618,7 +10618,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -10626,7 +10626,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -10634,7 +10634,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -10642,7 +10642,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -10899,7 +10899,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -10907,7 +10907,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -10923,7 +10923,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -10931,7 +10931,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -10939,7 +10939,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -10947,7 +10947,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -10955,7 +10955,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -10963,7 +10963,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -10971,7 +10971,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -10979,7 +10979,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -10987,7 +10987,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -10995,7 +10995,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -11003,7 +11003,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -11011,7 +11011,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -11019,7 +11019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -11027,7 +11027,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -11035,7 +11035,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -11043,7 +11043,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -11051,7 +11051,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -11059,7 +11059,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -11067,7 +11067,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -11075,7 +11075,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -11083,7 +11083,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -11091,7 +11091,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -11099,7 +11099,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -11107,7 +11107,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -11123,7 +11123,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -11388,7 +11388,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -11396,7 +11396,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -11404,7 +11404,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -11412,7 +11412,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -11420,7 +11420,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -11428,7 +11428,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -11436,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -11444,7 +11444,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -11452,7 +11452,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -11460,7 +11460,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -11468,7 +11468,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -11476,7 +11476,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -11484,7 +11484,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -11492,7 +11492,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -11500,7 +11500,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -11508,7 +11508,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -11516,7 +11516,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -11524,7 +11524,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -11532,7 +11532,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -11540,7 +11540,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -11548,7 +11548,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -11556,7 +11556,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -11564,7 +11564,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -11572,7 +11572,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -11588,7 +11588,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -11596,7 +11596,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -11604,7 +11604,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -621,7 +621,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -629,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -637,7 +637,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -645,7 +645,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -653,7 +653,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -661,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -974,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -998,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1030,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1046,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -1054,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1062,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -1070,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -1078,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1094,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -1102,7 +1102,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -1118,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -1134,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -1150,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -1158,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -1166,7 +1166,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -1174,7 +1174,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -1182,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -1198,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -1455,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -1471,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1487,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1495,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
@@ -1511,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -1527,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1543,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -1551,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -1599,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -1615,7 +1615,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1623,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -1631,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1639,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1647,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -1655,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -1663,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -1679,7 +1679,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -1687,7 +1687,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -1936,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1944,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1952,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -1960,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1968,7 +1968,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -1976,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -1984,7 +1984,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -2000,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -2008,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -2016,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -2024,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -2032,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -2040,7 +2040,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -2048,7 +2048,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -2056,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -2080,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -2088,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -2096,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -2104,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -2112,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -2120,7 +2120,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -2128,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -2136,7 +2136,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -2144,7 +2144,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -2152,7 +2152,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -2160,7 +2160,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -2409,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2417,7 +2417,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -2433,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -2441,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -2449,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -2457,7 +2457,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -2465,7 +2465,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -2481,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -2489,7 +2489,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -2497,7 +2497,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -2513,7 +2513,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -2537,7 +2537,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -2561,7 +2561,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -2569,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -2585,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -2593,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -2601,7 +2601,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -2609,7 +2609,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -2617,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -2625,7 +2625,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -2633,7 +2633,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -2641,7 +2641,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -2890,7 +2890,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2898,7 +2898,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -2906,7 +2906,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -2922,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -2930,7 +2930,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -2938,7 +2938,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -2946,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -2962,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2970,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
@@ -2978,7 +2978,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -2986,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -3002,7 +3002,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -3018,7 +3018,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -3026,7 +3026,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -3034,7 +3034,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -3042,7 +3042,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -3050,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -3058,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -3066,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -3074,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -3082,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -3090,7 +3090,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -3098,7 +3098,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -3106,7 +3106,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -3114,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -3363,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -3371,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -3379,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -3387,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -3395,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -3403,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -3411,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3419,7 +3419,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -3427,7 +3427,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -3435,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -3443,7 +3443,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -3459,7 +3459,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -3467,7 +3467,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -3491,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -3499,7 +3499,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -3507,7 +3507,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -3515,7 +3515,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -3531,7 +3531,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -3539,7 +3539,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -3547,7 +3547,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
@@ -3555,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -3563,7 +3563,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -3571,7 +3571,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -3579,7 +3579,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -3587,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -3595,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -3844,7 +3844,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3852,7 +3852,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -3860,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3868,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -3876,7 +3876,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -3884,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -3900,7 +3900,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -3908,7 +3908,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -3916,7 +3916,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -3924,7 +3924,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -3932,7 +3932,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -3940,7 +3940,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -3956,7 +3956,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -3964,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -3972,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -3980,7 +3980,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -3988,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -3996,7 +3996,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -4004,7 +4004,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -4012,7 +4012,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -4020,7 +4020,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -4028,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -4036,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -4044,7 +4044,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -4052,7 +4052,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -4060,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -4068,7 +4068,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -4325,7 +4325,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -4333,7 +4333,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -4341,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -4349,7 +4349,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -4357,7 +4357,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -4365,7 +4365,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -4373,7 +4373,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -4381,7 +4381,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -4389,7 +4389,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -4397,7 +4397,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -4405,7 +4405,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -4413,7 +4413,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -4429,7 +4429,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -4437,7 +4437,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -4445,7 +4445,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -4453,7 +4453,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -4461,7 +4461,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -4469,7 +4469,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -4477,7 +4477,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -4485,7 +4485,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -4493,7 +4493,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -4501,7 +4501,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -4509,7 +4509,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
@@ -4517,7 +4517,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -4525,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -4533,7 +4533,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -4541,7 +4541,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -4549,7 +4549,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -4798,7 +4798,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -4806,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -4814,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -4822,7 +4822,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -4830,7 +4830,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -4838,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -4846,7 +4846,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -4854,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -4862,7 +4862,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -4870,7 +4870,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -4878,7 +4878,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -4886,7 +4886,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -4902,7 +4902,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -4910,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -4918,7 +4918,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -4926,7 +4926,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -4934,7 +4934,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -4942,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -4950,7 +4950,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -4958,7 +4958,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -4966,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -4974,7 +4974,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -4982,7 +4982,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -4990,7 +4990,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -4998,7 +4998,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -5006,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -5014,7 +5014,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -5022,7 +5022,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -5030,7 +5030,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -5279,7 +5279,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -5287,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -5295,7 +5295,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -5303,7 +5303,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -5311,7 +5311,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -5319,7 +5319,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -5327,7 +5327,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -5335,7 +5335,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -5343,7 +5343,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -5351,7 +5351,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -5375,7 +5375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -5383,7 +5383,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5391,7 +5391,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -5399,7 +5399,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -5407,7 +5407,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -5415,7 +5415,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -5423,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -5431,7 +5431,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -5439,7 +5439,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -5447,7 +5447,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -5455,7 +5455,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -5463,7 +5463,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -5471,7 +5471,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -5479,7 +5479,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -5487,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -5495,7 +5495,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -5503,7 +5503,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -5648,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -5656,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -5664,7 +5664,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -5672,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -5680,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -5688,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -5696,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -5704,7 +5704,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -5712,7 +5712,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -5728,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -5736,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -5752,7 +5752,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -5760,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5768,7 +5768,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -5776,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -5784,7 +5784,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -5792,7 +5792,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -5800,7 +5800,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -5824,7 +5824,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -5832,7 +5832,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -5840,7 +5840,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -5848,7 +5848,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -5856,7 +5856,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -5864,7 +5864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -5872,7 +5872,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5880,7 +5880,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -6225,7 +6225,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -6233,7 +6233,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -6241,7 +6241,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -6249,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -6257,7 +6257,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -6265,7 +6265,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -6281,7 +6281,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -6289,7 +6289,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -6297,7 +6297,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -6321,7 +6321,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -6329,7 +6329,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -6337,7 +6337,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -6345,7 +6345,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -6353,7 +6353,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -6361,7 +6361,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -6369,7 +6369,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -6377,7 +6377,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -6385,7 +6385,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -6393,7 +6393,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -6401,7 +6401,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -6409,7 +6409,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -6417,7 +6417,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -6425,7 +6425,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -6433,7 +6433,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -6441,7 +6441,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -6449,7 +6449,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -6698,7 +6698,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -6706,7 +6706,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -6714,7 +6714,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -6722,7 +6722,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -6730,7 +6730,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -6738,7 +6738,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -6746,7 +6746,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -6754,7 +6754,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -6762,7 +6762,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -6770,7 +6770,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -6778,7 +6778,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -6794,7 +6794,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -6802,7 +6802,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -6810,7 +6810,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -6818,7 +6818,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -6834,7 +6834,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -6842,7 +6842,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -6850,7 +6850,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -6858,7 +6858,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -6866,7 +6866,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -6874,7 +6874,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -6882,7 +6882,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -6890,7 +6890,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -6898,7 +6898,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -6906,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
@@ -6914,7 +6914,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -6922,7 +6922,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -6930,7 +6930,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -6962,7 +6962,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -7179,7 +7179,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -7187,7 +7187,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -7195,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -7203,7 +7203,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -7211,7 +7211,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -7219,7 +7219,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -7227,7 +7227,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -7235,7 +7235,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -7243,7 +7243,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -7251,7 +7251,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -7259,7 +7259,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -7275,7 +7275,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -7291,7 +7291,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -7299,7 +7299,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -7307,7 +7307,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -7315,7 +7315,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -7323,7 +7323,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -7331,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -7339,7 +7339,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -7347,7 +7347,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -7355,7 +7355,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -7363,7 +7363,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
@@ -7379,7 +7379,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
@@ -7387,7 +7387,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -7395,7 +7395,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
@@ -7403,7 +7403,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -7427,7 +7427,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -7435,7 +7435,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -7451,7 +7451,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -7652,7 +7652,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -7660,7 +7660,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -7668,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -7676,7 +7676,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -7684,7 +7684,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -7692,7 +7692,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -7700,7 +7700,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -7708,7 +7708,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -7716,7 +7716,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -7724,7 +7724,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -7740,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
@@ -7748,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -7756,7 +7756,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -7804,7 +7804,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -7820,7 +7820,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -7844,7 +7844,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -7852,7 +7852,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -7860,7 +7860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -7868,7 +7868,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
@@ -7892,7 +7892,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
@@ -7900,7 +7900,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
@@ -7916,7 +7916,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -7932,7 +7932,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8133,7 +8133,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -8141,7 +8141,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -8149,7 +8149,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -8157,7 +8157,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -8165,7 +8165,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -8173,7 +8173,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -8181,7 +8181,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -8189,7 +8189,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -8197,7 +8197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
@@ -8205,7 +8205,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -8213,7 +8213,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
@@ -8221,7 +8221,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -8229,7 +8229,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -8237,7 +8237,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -8245,7 +8245,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -8253,7 +8253,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -8261,7 +8261,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -8269,7 +8269,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
@@ -8277,7 +8277,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -8293,7 +8293,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -8301,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -8341,7 +8341,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -8365,7 +8365,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
@@ -8389,7 +8389,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -8397,7 +8397,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -8446,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -8462,7 +8462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -8470,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -8478,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -8486,7 +8486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8494,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -8502,7 +8502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -8510,7 +8510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -8518,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -8526,7 +8526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -8534,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -8542,7 +8542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -8550,7 +8550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -8558,7 +8558,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -8566,7 +8566,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -8574,7 +8574,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -8582,7 +8582,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -8590,7 +8590,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -8598,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -8606,7 +8606,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -8614,7 +8614,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -8622,7 +8622,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -8630,7 +8630,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -8638,7 +8638,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -8646,7 +8646,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -8654,7 +8654,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -8678,7 +8678,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -8686,7 +8686,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -8694,7 +8694,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -8702,7 +8702,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -8710,7 +8710,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -8726,7 +8726,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -8927,7 +8927,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -8951,7 +8951,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -8959,7 +8959,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8967,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -8975,7 +8975,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -8983,7 +8983,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -8991,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -8999,7 +8999,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -9007,7 +9007,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -9015,7 +9015,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -9023,7 +9023,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -9031,7 +9031,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -9039,7 +9039,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -9047,7 +9047,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -9055,7 +9055,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -9063,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -9071,7 +9071,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -9079,7 +9079,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -9087,7 +9087,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -9095,7 +9095,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -9103,7 +9103,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -9111,7 +9111,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -9119,7 +9119,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -9127,7 +9127,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -9135,7 +9135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -9143,7 +9143,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -9151,7 +9151,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -9167,7 +9167,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -9175,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -9183,7 +9183,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -9191,7 +9191,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -9199,7 +9199,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -9207,7 +9207,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -9424,7 +9424,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -9432,7 +9432,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -9440,7 +9440,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -9448,7 +9448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -9456,7 +9456,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -9464,7 +9464,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -9472,7 +9472,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -9480,7 +9480,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -9488,7 +9488,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -9496,7 +9496,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -9504,7 +9504,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -9512,7 +9512,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -9520,7 +9520,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -9528,7 +9528,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -9536,7 +9536,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -9544,7 +9544,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -9552,7 +9552,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -9560,7 +9560,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -9568,7 +9568,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -9576,7 +9576,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -9584,7 +9584,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -9592,7 +9592,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -9600,7 +9600,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -9608,7 +9608,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -9616,7 +9616,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -9624,7 +9624,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -9688,7 +9688,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -9921,7 +9921,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -9929,7 +9929,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -9937,7 +9937,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -9945,7 +9945,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -9953,7 +9953,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -9961,7 +9961,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -9969,7 +9969,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -9977,7 +9977,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -9985,7 +9985,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -9993,7 +9993,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -10001,7 +10001,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -10009,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -10017,7 +10017,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -10025,7 +10025,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
@@ -10033,7 +10033,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -10041,7 +10041,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -10049,7 +10049,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -10057,7 +10057,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -10065,7 +10065,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -10073,7 +10073,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -10081,7 +10081,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -10089,7 +10089,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -10097,7 +10097,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -10113,7 +10113,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -10121,7 +10121,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -10129,7 +10129,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -10137,7 +10137,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -10145,7 +10145,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -10153,7 +10153,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -10161,7 +10161,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -10169,7 +10169,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -10410,7 +10410,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -10418,7 +10418,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -10426,7 +10426,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -10434,7 +10434,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -10442,7 +10442,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -10450,7 +10450,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -10458,7 +10458,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -10466,7 +10466,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -10474,7 +10474,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -10482,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -10490,7 +10490,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -10506,7 +10506,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -10514,7 +10514,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -10522,7 +10522,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -10570,7 +10570,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -10578,7 +10578,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -10586,7 +10586,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -10594,7 +10594,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -10602,7 +10602,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -10610,7 +10610,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -10618,7 +10618,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -10626,7 +10626,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -10634,7 +10634,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -10642,7 +10642,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -10650,7 +10650,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -10891,7 +10891,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -10899,7 +10899,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -10907,7 +10907,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -10915,7 +10915,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -10923,7 +10923,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -10931,7 +10931,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -10939,7 +10939,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -10947,7 +10947,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -10955,7 +10955,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -10963,7 +10963,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -10971,7 +10971,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -10987,7 +10987,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -10995,7 +10995,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -11003,7 +11003,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -11011,7 +11011,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -11019,7 +11019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -11059,7 +11059,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -11067,7 +11067,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -11075,7 +11075,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -11083,7 +11083,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -11091,7 +11091,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -11099,7 +11099,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -11107,7 +11107,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -11115,7 +11115,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -11123,7 +11123,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -11131,7 +11131,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -11372,7 +11372,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -11380,7 +11380,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -11388,7 +11388,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -11396,7 +11396,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -11404,7 +11404,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -11412,7 +11412,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -11420,7 +11420,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -11428,7 +11428,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -11436,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -11444,7 +11444,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -11452,7 +11452,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -11460,7 +11460,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -11468,7 +11468,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -11476,7 +11476,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -11484,7 +11484,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -11492,7 +11492,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -11500,7 +11500,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -11508,7 +11508,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -11532,7 +11532,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -11540,7 +11540,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -11548,7 +11548,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -11556,7 +11556,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -11564,7 +11564,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -11572,7 +11572,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -11580,7 +11580,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -11588,7 +11588,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -11596,7 +11596,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -11604,7 +11604,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -11612,7 +11612,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
